--- a/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>ALBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,105 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>39721</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
@@ -770,14 +777,20 @@
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3">
         <v>2400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -820,8 +833,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,8 +883,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1014,8 +1053,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1040,11 +1085,11 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>4</v>
@@ -1058,8 +1103,14 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,31 +1124,33 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>4</v>
@@ -1111,37 +1164,43 @@
       <c r="N17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="3">
         <v>3700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
@@ -1155,14 +1214,20 @@
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,31 +1244,33 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+      <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>500</v>
+      </c>
+      <c r="I20" s="3">
+        <v>500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>500</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
@@ -1217,14 +1284,20 @@
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-3400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,8 +1340,14 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1311,8 +1390,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1320,7 +1405,7 @@
         <v>500</v>
       </c>
       <c r="E23" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F23" s="3">
         <v>500</v>
@@ -1332,31 +1417,37 @@
         <v>500</v>
       </c>
       <c r="I23" s="3">
+        <v>500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>500</v>
+      </c>
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-4700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1382,25 +1473,31 @@
         <v>100</v>
       </c>
       <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>2500</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,31 +1540,37 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>4</v>
@@ -1481,37 +1584,43 @@
       <c r="N26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>4</v>
@@ -1525,14 +1634,20 @@
       <c r="N27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,31 +1840,37 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+      <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-500</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
@@ -1745,37 +1884,43 @@
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>3400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>4</v>
@@ -1789,14 +1934,20 @@
       <c r="N33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,31 +1990,37 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>4</v>
@@ -1877,63 +2034,75 @@
       <c r="N35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>39721</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,8 +2139,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2007,13 +2180,19 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>4100</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2051,13 +2230,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>900</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2100,8 +2285,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2144,8 +2335,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2188,8 +2385,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2232,8 +2435,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2276,8 +2485,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2315,13 +2530,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
         <v>6400</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2359,13 +2580,19 @@
         <v>0</v>
       </c>
       <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
         <v>2500</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2496,8 +2735,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,8 +2785,14 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2579,13 +2830,19 @@
         <v>0</v>
       </c>
       <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>198900</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,8 +2879,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2664,8 +2925,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2708,8 +2975,14 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2752,8 +3025,14 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2796,8 +3075,14 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2840,8 +3125,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2884,8 +3175,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,8 +3325,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3055,13 +3370,19 @@
         <v>0</v>
       </c>
       <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
         <v>177800</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,8 +3595,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3298,8 +3645,14 @@
       <c r="P72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,8 +3795,14 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3469,13 +3840,19 @@
         <v>0</v>
       </c>
       <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
         <v>21100</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,80 +3895,92 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>39721</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>4</v>
@@ -3605,14 +3994,20 @@
       <c r="N81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3673,8 +4070,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,8 +4320,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3937,8 +4370,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,8 +4394,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3999,8 +4440,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,8 +4540,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4131,8 +4590,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,8 +4810,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4369,8 +4860,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,8 +4910,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4455,6 +4958,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>ALBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,86 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>39721</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -765,8 +769,8 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
@@ -783,14 +787,17 @@
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="3">
         <v>2400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1091,8 +1114,8 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1152,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1152,8 +1179,8 @@
       <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>4</v>
@@ -1170,14 +1197,17 @@
       <c r="P17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="3">
         <v>3700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1202,8 +1232,8 @@
       <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
@@ -1220,14 +1250,17 @@
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1279,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1255,10 +1289,10 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>500</v>
       </c>
       <c r="G20" s="3">
         <v>500</v>
@@ -1272,8 +1306,8 @@
       <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3">
+        <v>500</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
@@ -1290,14 +1324,17 @@
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>-3400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1346,8 +1383,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,19 +1436,22 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>500</v>
       </c>
       <c r="G23" s="3">
         <v>500</v>
@@ -1423,31 +1466,34 @@
         <v>500</v>
       </c>
       <c r="K23" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L23" s="3">
         <v>300</v>
       </c>
       <c r="M23" s="3">
+        <v>300</v>
+      </c>
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="3">
         <v>-4700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1479,25 +1525,28 @@
         <v>100</v>
       </c>
       <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
         <v>2500</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3">
         <v>-1600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1595,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1572,8 +1624,8 @@
       <c r="J26" s="3">
         <v>0</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>4</v>
@@ -1590,14 +1642,17 @@
       <c r="P26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1622,8 +1677,8 @@
       <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>4</v>
@@ -1640,14 +1695,17 @@
       <c r="P27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1913,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1855,10 +1925,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-500</v>
       </c>
       <c r="G32" s="3">
         <v>-500</v>
@@ -1872,8 +1942,8 @@
       <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+      <c r="K32" s="3">
+        <v>-500</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
@@ -1890,14 +1960,17 @@
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>3400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1922,8 +1995,8 @@
       <c r="J33" s="3">
         <v>0</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>4</v>
@@ -1940,14 +2013,17 @@
       <c r="P33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="3">
         <v>-3100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2072,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2022,8 +2101,8 @@
       <c r="J35" s="3">
         <v>0</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>4</v>
@@ -2040,69 +2119,75 @@
       <c r="P35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="3">
         <v>-3100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>39721</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2227,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2186,13 +2273,16 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>4100</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2236,13 +2326,16 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>900</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,8 +2490,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,8 +2543,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2596,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2536,13 +2644,16 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
         <v>6400</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2586,13 +2697,16 @@
         <v>0</v>
       </c>
       <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
         <v>2500</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +2914,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2836,13 +2962,16 @@
         <v>0</v>
       </c>
       <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>198900</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,8 +3115,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3031,8 +3168,11 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3081,8 +3221,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3274,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3327,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,8 +3486,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3376,13 +3534,16 @@
         <v>0</v>
       </c>
       <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3">
         <v>177800</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,8 +3772,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,31 +3984,34 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
+        <v>17100</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
@@ -3846,13 +4032,16 @@
         <v>0</v>
       </c>
       <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
         <v>21100</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4090,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>39721</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3982,8 +4177,8 @@
       <c r="J81" s="3">
         <v>0</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>4</v>
@@ -4000,14 +4195,17 @@
       <c r="P81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R81" s="3">
         <v>-3100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4540,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4376,8 +4593,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4773,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5059,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4866,8 +5112,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5165,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4964,6 +5216,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>ALBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,90 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>39721</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -772,8 +776,8 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
@@ -790,14 +794,17 @@
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>2400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +856,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +912,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +936,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +990,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1046,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1102,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1117,8 +1140,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1135,8 +1158,11 @@
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,8 +1179,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1182,8 +1209,8 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>4</v>
@@ -1200,14 +1227,17 @@
       <c r="Q17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="3">
         <v>3700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1235,8 +1265,8 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
+      <c r="L18" s="3">
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
@@ -1253,14 +1283,17 @@
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,8 +1313,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1289,13 +1323,13 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>500</v>
       </c>
       <c r="H20" s="3">
         <v>500</v>
@@ -1309,8 +1343,8 @@
       <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
+      <c r="L20" s="3">
+        <v>500</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
@@ -1327,14 +1361,17 @@
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>-3400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1386,8 +1423,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,22 +1479,25 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>500</v>
       </c>
       <c r="H23" s="3">
         <v>500</v>
@@ -1469,31 +1512,34 @@
         <v>500</v>
       </c>
       <c r="L23" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M23" s="3">
         <v>300</v>
       </c>
       <c r="N23" s="3">
+        <v>300</v>
+      </c>
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="3">
         <v>-4700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1528,25 +1574,28 @@
         <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
         <v>2500</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3">
         <v>-1600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,8 +1647,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1627,8 +1679,8 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>4</v>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>4</v>
@@ -1645,14 +1697,17 @@
       <c r="Q26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="3">
         <v>-3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1680,8 +1735,8 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>4</v>
@@ -1698,14 +1753,17 @@
       <c r="Q27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="3">
         <v>-3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,8 +1983,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1925,13 +1995,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-500</v>
       </c>
       <c r="H32" s="3">
         <v>-500</v>
@@ -1945,8 +2015,8 @@
       <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
+      <c r="L32" s="3">
+        <v>-500</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
@@ -1963,14 +2033,17 @@
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>3400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1998,8 +2071,8 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>4</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>4</v>
@@ -2016,14 +2089,17 @@
       <c r="Q33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="3">
         <v>-3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,8 +2151,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2104,8 +2183,8 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>4</v>
@@ -2122,72 +2201,78 @@
       <c r="Q35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="3">
         <v>-3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>39721</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,8 +2314,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2276,13 +2363,16 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>4100</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2329,13 +2419,16 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>900</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2387,8 +2480,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2440,8 +2536,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2493,8 +2592,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2546,8 +2648,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,8 +2704,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2647,13 +2755,16 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
         <v>6400</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2700,13 +2811,16 @@
         <v>0</v>
       </c>
       <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <v>2500</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2928,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2864,8 +2984,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,8 +3040,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2965,13 +3091,16 @@
         <v>0</v>
       </c>
       <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
         <v>198900</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3142,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3065,8 +3196,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3118,8 +3252,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3171,8 +3308,11 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3224,8 +3364,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,8 +3420,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3330,8 +3476,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,8 +3644,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3537,13 +3695,16 @@
         <v>0</v>
       </c>
       <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
         <v>177800</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,8 +3946,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3828,8 +4002,11 @@
       <c r="S72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,19 +4170,22 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E76" s="3">
         <v>17100</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>4</v>
+      <c r="F76" s="3">
+        <v>16600</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>4</v>
@@ -4013,8 +4199,8 @@
       <c r="J76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
+      <c r="K76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
@@ -4035,13 +4221,16 @@
         <v>0</v>
       </c>
       <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
         <v>21100</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,66 +4282,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>39721</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4180,8 +4375,8 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>4</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>4</v>
@@ -4198,14 +4393,17 @@
       <c r="Q81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S81" s="3">
         <v>-3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4423,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4278,8 +4477,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,8 +4757,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4596,8 +4813,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4837,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4670,8 +4891,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +5003,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4829,8 +5059,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5305,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5115,8 +5361,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,8 +5417,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5219,6 +5471,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
   <si>
     <t>ALBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,97 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>39721</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -779,11 +786,11 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
@@ -797,14 +804,20 @@
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="3">
         <v>2400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -859,8 +872,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -915,8 +934,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -993,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1105,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1143,11 +1188,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>4</v>
@@ -1161,8 +1206,14 @@
       <c r="T15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,8 +1231,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1212,11 +1265,11 @@
       <c r="L17" s="3">
         <v>0</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>4</v>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>4</v>
@@ -1230,14 +1283,20 @@
       <c r="R17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" s="3">
         <v>3700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1268,11 +1327,11 @@
       <c r="L18" s="3">
         <v>0</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
@@ -1286,14 +1345,20 @@
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>-1300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,8 +1379,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1323,19 +1390,19 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
+        <v>600</v>
+      </c>
+      <c r="G20" s="3">
         <v>700</v>
-      </c>
-      <c r="F20" s="3">
-        <v>500</v>
-      </c>
-      <c r="G20" s="3">
-        <v>300</v>
       </c>
       <c r="H20" s="3">
         <v>500</v>
       </c>
       <c r="I20" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J20" s="3">
         <v>500</v>
@@ -1346,11 +1413,11 @@
       <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
+      <c r="M20" s="3">
+        <v>500</v>
+      </c>
+      <c r="N20" s="3">
+        <v>500</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
@@ -1364,14 +1431,20 @@
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>-3400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1426,8 +1499,14 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1482,28 +1561,34 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>500</v>
+      </c>
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
-      </c>
-      <c r="F23" s="3">
-        <v>500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>300</v>
       </c>
       <c r="H23" s="3">
         <v>500</v>
       </c>
       <c r="I23" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J23" s="3">
         <v>500</v>
@@ -1515,36 +1600,42 @@
         <v>500</v>
       </c>
       <c r="M23" s="3">
+        <v>500</v>
+      </c>
+      <c r="N23" s="3">
+        <v>500</v>
+      </c>
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U23" s="3">
         <v>-4700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -1577,25 +1668,31 @@
         <v>100</v>
       </c>
       <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>2500</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24" s="3">
         <v>-1600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,8 +1747,14 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1682,11 +1785,11 @@
       <c r="L26" s="3">
         <v>0</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>4</v>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>4</v>
@@ -1700,14 +1803,20 @@
       <c r="R26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" s="3">
         <v>-3100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1738,11 +1847,11 @@
       <c r="L27" s="3">
         <v>0</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>4</v>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>4</v>
@@ -1756,14 +1865,20 @@
       <c r="R27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U27" s="3">
         <v>-3100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,8 +2119,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1995,19 +2134,19 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-700</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-300</v>
       </c>
       <c r="H32" s="3">
         <v>-500</v>
       </c>
       <c r="I32" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="J32" s="3">
         <v>-500</v>
@@ -2018,11 +2157,11 @@
       <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
+      <c r="M32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-500</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
@@ -2036,14 +2175,20 @@
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>3400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2074,11 +2219,11 @@
       <c r="L33" s="3">
         <v>0</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>4</v>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>4</v>
@@ -2092,14 +2237,20 @@
       <c r="R33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U33" s="3">
         <v>-3100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,8 +2305,14 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2186,11 +2343,11 @@
       <c r="L35" s="3">
         <v>0</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>4</v>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>4</v>
@@ -2204,75 +2361,87 @@
       <c r="R35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U35" s="3">
         <v>-3100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>39721</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,8 +2486,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2366,13 +2539,19 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>4100</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2422,13 +2601,19 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>900</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2483,8 +2668,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2539,8 +2730,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2595,8 +2792,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2651,8 +2854,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2707,8 +2916,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2758,13 +2973,19 @@
         <v>0</v>
       </c>
       <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
         <v>6400</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2814,13 +3035,19 @@
         <v>0</v>
       </c>
       <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
         <v>2500</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,8 +3164,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2987,8 +3226,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,8 +3288,14 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3094,13 +3345,19 @@
         <v>0</v>
       </c>
       <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
         <v>198900</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,8 +3402,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3199,8 +3460,14 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3255,8 +3522,14 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3311,8 +3584,14 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3367,8 +3646,14 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3423,8 +3708,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3479,8 +3770,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,8 +3956,14 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3698,13 +4013,19 @@
         <v>0</v>
       </c>
       <c r="S66" s="3">
+        <v>0</v>
+      </c>
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
         <v>177800</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,8 +4290,14 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4005,8 +4352,14 @@
       <c r="T72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,26 +4538,32 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F76" s="3">
         <v>16800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>17100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>16600</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4202,11 +4573,11 @@
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-      <c r="M76" s="3">
-        <v>0</v>
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N76" s="3">
         <v>0</v>
@@ -4224,13 +4595,19 @@
         <v>0</v>
       </c>
       <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
         <v>21100</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,69 +4662,81 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>39721</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4378,11 +4767,11 @@
       <c r="L81" s="3">
         <v>0</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>4</v>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>4</v>
@@ -4396,14 +4785,20 @@
       <c r="R81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U81" s="3">
         <v>-3100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4480,8 +4877,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,8 +5187,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4816,8 +5249,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,8 +5277,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4894,8 +5335,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,8 +5459,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5062,8 +5521,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,8 +5793,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5364,8 +5855,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,8 +5917,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5474,6 +5977,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>ALBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,124 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>39721</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>1700</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>1800</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -792,8 +796,8 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
@@ -810,14 +814,17 @@
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3">
         <v>2400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +885,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1194,8 +1217,8 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
+      <c r="Q15" s="3">
+        <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>4</v>
@@ -1212,8 +1235,11 @@
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,8 +1259,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1271,8 +1298,8 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>4</v>
+      <c r="O17" s="3">
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>4</v>
@@ -1289,37 +1316,40 @@
       <c r="T17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V17" s="3">
         <v>3700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>1700</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
+        <v>1800</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -1333,8 +1363,8 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
+      <c r="O18" s="3">
+        <v>0</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
@@ -1351,14 +1381,17 @@
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3">
         <v>-1300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,31 +1414,32 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-1100</v>
       </c>
       <c r="E20" s="3">
-        <v>500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>500</v>
+        <v>-1100</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K20" s="3">
         <v>500</v>
@@ -1419,8 +1453,8 @@
       <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
+      <c r="O20" s="3">
+        <v>500</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
@@ -1437,14 +1471,17 @@
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="3">
         <v>-3400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1505,8 +1542,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,31 +1607,34 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>500</v>
       </c>
       <c r="K23" s="3">
         <v>500</v>
@@ -1606,39 +1649,42 @@
         <v>500</v>
       </c>
       <c r="O23" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="P23" s="3">
         <v>300</v>
       </c>
       <c r="Q23" s="3">
+        <v>300</v>
+      </c>
+      <c r="R23" s="3">
         <v>400</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V23" s="3">
         <v>-4700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
@@ -1674,25 +1720,28 @@
         <v>100</v>
       </c>
       <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
         <v>2500</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="3">
         <v>-1600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,31 +1802,34 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1791,8 +1843,8 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>4</v>
+      <c r="O26" s="3">
+        <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>4</v>
@@ -1809,37 +1861,40 @@
       <c r="T26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V26" s="3">
         <v>-3100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1853,8 +1908,8 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>4</v>
+      <c r="O27" s="3">
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>4</v>
@@ -1871,14 +1926,17 @@
       <c r="T27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V27" s="3">
         <v>-3100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,31 +2192,34 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>1100</v>
       </c>
       <c r="E32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-500</v>
+        <v>1100</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K32" s="3">
         <v>-500</v>
@@ -2163,8 +2233,8 @@
       <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
+      <c r="O32" s="3">
+        <v>-500</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
@@ -2181,37 +2251,40 @@
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3">
         <v>3400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -2225,8 +2298,8 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>4</v>
+      <c r="O33" s="3">
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>4</v>
@@ -2243,14 +2316,17 @@
       <c r="T33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V33" s="3">
         <v>-3100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,31 +2387,34 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -2349,8 +2428,8 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>4</v>
+      <c r="O35" s="3">
+        <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>4</v>
@@ -2367,81 +2446,87 @@
       <c r="T35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V35" s="3">
         <v>-3100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>39721</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2574,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2545,13 +2632,16 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>4100</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2607,13 +2697,16 @@
         <v>0</v>
       </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>900</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2674,8 +2767,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2832,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2798,8 +2897,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2860,8 +2962,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,8 +3027,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2979,13 +3087,16 @@
         <v>0</v>
       </c>
       <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
         <v>6400</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3041,13 +3152,16 @@
         <v>0</v>
       </c>
       <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
         <v>2500</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3287,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,8 +3417,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3351,13 +3477,16 @@
         <v>0</v>
       </c>
       <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
         <v>198900</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3534,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3466,8 +3597,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3528,8 +3662,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3590,8 +3727,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3652,8 +3792,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,8 +3857,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +3922,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,8 +4117,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4019,13 +4177,16 @@
         <v>0</v>
       </c>
       <c r="U66" s="3">
+        <v>0</v>
+      </c>
+      <c r="V66" s="3">
         <v>177800</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,8 +4467,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4358,8 +4532,11 @@
       <c r="V72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,29 +4727,32 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E76" s="3">
         <v>18600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16600</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4579,8 +4765,8 @@
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
+      <c r="N76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
@@ -4601,13 +4787,16 @@
         <v>0</v>
       </c>
       <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
         <v>21100</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,98 +4857,104 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>39721</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -4773,8 +4968,8 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>4</v>
+      <c r="O81" s="3">
+        <v>0</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>4</v>
@@ -4791,14 +4986,17 @@
       <c r="T81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V81" s="3">
         <v>-3100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5019,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5082,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5407,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5255,8 +5472,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5499,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5562,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5692,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5527,8 +5757,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6042,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5861,8 +6107,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,8 +6172,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5983,6 +6235,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
   <si>
     <t>ALBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,131 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>39721</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1800</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="H8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -799,8 +803,8 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
+      <c r="P8" s="3">
+        <v>0</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
@@ -817,14 +821,17 @@
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W8" s="3">
         <v>2400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -888,8 +895,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,8 +963,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +991,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1057,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1125,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1173,8 +1193,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1220,8 +1243,8 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
@@ -1238,8 +1261,11 @@
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,31 +1286,32 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -1301,8 +1328,8 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>4</v>
+      <c r="P17" s="3">
+        <v>0</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>4</v>
@@ -1319,22 +1346,25 @@
       <c r="U17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" s="3">
         <v>3700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>1700</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1800</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
@@ -1351,8 +1381,8 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1366,8 +1396,8 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
+      <c r="P18" s="3">
+        <v>0</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
@@ -1384,14 +1414,17 @@
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>-1300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,16 +1448,17 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-1100</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
@@ -1441,8 +1475,8 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
-        <v>500</v>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L20" s="3">
         <v>500</v>
@@ -1456,8 +1490,8 @@
       <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
+      <c r="P20" s="3">
+        <v>500</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
@@ -1474,14 +1508,17 @@
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="3">
         <v>-3400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1545,8 +1582,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,34 +1650,37 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>500</v>
       </c>
       <c r="L23" s="3">
         <v>500</v>
@@ -1652,31 +1695,34 @@
         <v>500</v>
       </c>
       <c r="P23" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q23" s="3">
         <v>300</v>
       </c>
       <c r="R23" s="3">
+        <v>300</v>
+      </c>
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W23" s="3">
         <v>-4700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1684,10 +1730,10 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
@@ -1723,25 +1769,28 @@
         <v>100</v>
       </c>
       <c r="R24" s="3">
+        <v>100</v>
+      </c>
+      <c r="S24" s="3">
         <v>2500</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W24" s="3">
         <v>-1600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,34 +1854,37 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
+      <c r="H26" s="3">
+        <v>400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>400</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -1846,8 +1898,8 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>4</v>
+      <c r="P26" s="3">
+        <v>0</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>4</v>
@@ -1864,40 +1916,43 @@
       <c r="U26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W26" s="3">
         <v>-3100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
+      <c r="H27" s="3">
+        <v>400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>400</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -1911,8 +1966,8 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>4</v>
+      <c r="P27" s="3">
+        <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>4</v>
@@ -1929,14 +1984,17 @@
       <c r="U27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27" s="3">
         <v>-3100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,16 +2262,19 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1100</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
@@ -2221,8 +2291,8 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
-        <v>-500</v>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L32" s="3">
         <v>-500</v>
@@ -2236,8 +2306,8 @@
       <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
+      <c r="P32" s="3">
+        <v>-500</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
@@ -2254,40 +2324,43 @@
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V32" s="3">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="3">
         <v>3400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
+      <c r="H33" s="3">
+        <v>400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>400</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -2301,8 +2374,8 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>4</v>
+      <c r="P33" s="3">
+        <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>4</v>
@@ -2319,14 +2392,17 @@
       <c r="U33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W33" s="3">
         <v>-3100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,34 +2466,37 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
+      <c r="H35" s="3">
+        <v>400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>400</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -2431,8 +2510,8 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>4</v>
+      <c r="P35" s="3">
+        <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>4</v>
@@ -2449,84 +2528,90 @@
       <c r="U35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W35" s="3">
         <v>-3100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>39721</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,8 +2661,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2635,13 +2722,16 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>4100</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2700,13 +2790,16 @@
         <v>0</v>
       </c>
       <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
         <v>900</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2770,8 +2863,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,8 +2931,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2900,8 +2999,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2965,8 +3067,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,8 +3135,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3090,13 +3198,16 @@
         <v>0</v>
       </c>
       <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
         <v>6400</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3155,13 +3266,16 @@
         <v>0</v>
       </c>
       <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
         <v>2500</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3407,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3355,8 +3475,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,8 +3543,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3480,13 +3606,16 @@
         <v>0</v>
       </c>
       <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
         <v>198900</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,8 +3665,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3600,8 +3731,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3665,8 +3799,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3730,8 +3867,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3795,8 +3935,11 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3860,8 +4003,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3925,8 +4071,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,8 +4275,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4180,13 +4338,16 @@
         <v>0</v>
       </c>
       <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3">
         <v>177800</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,8 +4641,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4535,8 +4709,11 @@
       <c r="W72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,32 +4913,35 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E76" s="3">
         <v>19100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16600</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4768,8 +4954,8 @@
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
+      <c r="O76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P76" s="3">
         <v>0</v>
@@ -4790,13 +4976,16 @@
         <v>0</v>
       </c>
       <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3">
         <v>21100</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,104 +5049,110 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>39721</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
+      <c r="H81" s="3">
+        <v>400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>400</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -4971,8 +5166,8 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>4</v>
+      <c r="P81" s="3">
+        <v>0</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>4</v>
@@ -4989,14 +5184,17 @@
       <c r="U81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W81" s="3">
         <v>-3100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,8 +5218,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5085,8 +5284,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,8 +5624,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5475,8 +5692,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5720,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5565,8 +5786,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +5922,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5760,8 +5990,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6084,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,8 +6288,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6110,8 +6356,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,8 +6424,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6238,6 +6490,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
   <si>
     <t>ALBY</t>
   </si>
@@ -776,8 +776,8 @@
       <c r="F8" s="3">
         <v>1800</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
+      <c r="G8" s="3">
+        <v>1700</v>
       </c>
       <c r="H8" s="3">
         <v>1700</v>
@@ -1871,8 +1871,8 @@
       <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
+      <c r="G26" s="3">
+        <v>400</v>
       </c>
       <c r="H26" s="3">
         <v>400</v>
@@ -1939,8 +1939,8 @@
       <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>4</v>
+      <c r="G27" s="3">
+        <v>400</v>
       </c>
       <c r="H27" s="3">
         <v>400</v>
@@ -2347,8 +2347,8 @@
       <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
+      <c r="G33" s="3">
+        <v>400</v>
       </c>
       <c r="H33" s="3">
         <v>400</v>
@@ -2483,8 +2483,8 @@
       <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
+      <c r="G35" s="3">
+        <v>400</v>
       </c>
       <c r="H35" s="3">
         <v>400</v>
@@ -5139,8 +5139,8 @@
       <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>4</v>
+      <c r="G81" s="3">
+        <v>400</v>
       </c>
       <c r="H81" s="3">
         <v>400</v>

--- a/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
   <si>
     <t>ALBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,120 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>39721</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1800</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1700</v>
+        <v>1600</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3">
         <v>1800</v>
@@ -780,22 +787,22 @@
         <v>1700</v>
       </c>
       <c r="H8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I8" s="3">
         <v>1700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1800</v>
       </c>
       <c r="J8" s="3">
         <v>1700</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
+      <c r="K8" s="3">
+        <v>1800</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
+        <v>1700</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -806,11 +813,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
@@ -824,14 +831,20 @@
       <c r="V8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3">
         <v>2400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -898,8 +911,14 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -966,8 +985,14 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,8 +1161,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1196,8 +1235,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1246,11 +1291,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>4</v>
@@ -1264,8 +1309,14 @@
       <c r="X15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,8 +1338,10 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1313,11 +1366,11 @@
       <c r="J17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1331,11 +1384,11 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>4</v>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>4</v>
@@ -1349,14 +1402,20 @@
       <c r="V17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="3">
         <v>3700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1384,11 +1443,11 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -1399,11 +1458,11 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
@@ -1417,14 +1476,20 @@
       <c r="V18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-1300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,8 +1514,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1478,11 +1545,11 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
-        <v>500</v>
-      </c>
-      <c r="M20" s="3">
-        <v>500</v>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N20" s="3">
         <v>500</v>
@@ -1493,11 +1560,11 @@
       <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
+      <c r="Q20" s="3">
+        <v>500</v>
+      </c>
+      <c r="R20" s="3">
+        <v>500</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
@@ -1511,14 +1578,20 @@
       <c r="V20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-3400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1585,8 +1658,14 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1653,40 +1732,46 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E23" s="3">
-        <v>600</v>
+        <v>2500</v>
       </c>
       <c r="F23" s="3">
         <v>700</v>
       </c>
       <c r="G23" s="3">
+        <v>600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>700</v>
+      </c>
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>300</v>
       </c>
       <c r="L23" s="3">
         <v>500</v>
       </c>
       <c r="M23" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N23" s="3">
         <v>500</v>
@@ -1698,31 +1783,37 @@
         <v>500</v>
       </c>
       <c r="Q23" s="3">
+        <v>500</v>
+      </c>
+      <c r="R23" s="3">
+        <v>500</v>
+      </c>
+      <c r="S23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-4700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1730,16 +1821,16 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>600</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>200</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
@@ -1772,25 +1863,31 @@
         <v>100</v>
       </c>
       <c r="S24" s="3">
+        <v>100</v>
+      </c>
+      <c r="T24" s="3">
+        <v>100</v>
+      </c>
+      <c r="U24" s="3">
         <v>2500</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="3">
         <v>-1600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,40 +1954,46 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
         <v>500</v>
-      </c>
-      <c r="E26" s="3">
-        <v>400</v>
-      </c>
-      <c r="F26" s="3">
-        <v>600</v>
       </c>
       <c r="G26" s="3">
         <v>400</v>
       </c>
       <c r="H26" s="3">
+        <v>600</v>
+      </c>
+      <c r="I26" s="3">
         <v>400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>500</v>
       </c>
       <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
+      <c r="K26" s="3">
+        <v>500</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
@@ -1901,11 +2004,11 @@
       <c r="P26" s="3">
         <v>0</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>4</v>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>4</v>
@@ -1919,46 +2022,52 @@
       <c r="V26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-3100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
         <v>500</v>
-      </c>
-      <c r="E27" s="3">
-        <v>400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>600</v>
       </c>
       <c r="G27" s="3">
         <v>400</v>
       </c>
       <c r="H27" s="3">
+        <v>600</v>
+      </c>
+      <c r="I27" s="3">
         <v>400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>500</v>
       </c>
       <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
+      <c r="K27" s="3">
+        <v>500</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -1969,11 +2078,11 @@
       <c r="P27" s="3">
         <v>0</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>4</v>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>4</v>
@@ -1987,14 +2096,20 @@
       <c r="V27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-3100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2176,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,8 +2398,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2294,11 +2433,11 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-500</v>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N32" s="3">
         <v>-500</v>
@@ -2309,11 +2448,11 @@
       <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
+      <c r="Q32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-500</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
@@ -2327,46 +2466,52 @@
       <c r="V32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="3">
         <v>3400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3">
         <v>500</v>
-      </c>
-      <c r="E33" s="3">
-        <v>400</v>
-      </c>
-      <c r="F33" s="3">
-        <v>600</v>
       </c>
       <c r="G33" s="3">
         <v>400</v>
       </c>
       <c r="H33" s="3">
+        <v>600</v>
+      </c>
+      <c r="I33" s="3">
         <v>400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>500</v>
       </c>
       <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
+      <c r="K33" s="3">
+        <v>500</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -2377,11 +2522,11 @@
       <c r="P33" s="3">
         <v>0</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>4</v>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>4</v>
@@ -2395,14 +2540,20 @@
       <c r="V33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-3100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,40 +2620,46 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3">
         <v>500</v>
-      </c>
-      <c r="E35" s="3">
-        <v>400</v>
-      </c>
-      <c r="F35" s="3">
-        <v>600</v>
       </c>
       <c r="G35" s="3">
         <v>400</v>
       </c>
       <c r="H35" s="3">
+        <v>600</v>
+      </c>
+      <c r="I35" s="3">
         <v>400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>500</v>
       </c>
       <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
+      <c r="K35" s="3">
+        <v>500</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -2513,11 +2670,11 @@
       <c r="P35" s="3">
         <v>0</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>4</v>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>4</v>
@@ -2531,87 +2688,99 @@
       <c r="V35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-3100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>39721</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,8 +2833,10 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2725,13 +2898,19 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>4100</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2793,13 +2972,19 @@
         <v>0</v>
       </c>
       <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
         <v>900</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2866,8 +3051,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2934,8 +3125,14 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3002,8 +3199,14 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3070,8 +3273,14 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3138,8 +3347,14 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3201,13 +3416,19 @@
         <v>0</v>
       </c>
       <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
         <v>6400</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3269,13 +3490,19 @@
         <v>0</v>
       </c>
       <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
         <v>2500</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,8 +3643,14 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3478,8 +3717,14 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,8 +3791,14 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3609,13 +3860,19 @@
         <v>0</v>
       </c>
       <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
         <v>198900</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,8 +3925,10 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3734,8 +3995,14 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3802,8 +4069,14 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3870,8 +4143,14 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3938,8 +4217,14 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4006,8 +4291,14 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4074,8 +4365,14 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,8 +4587,14 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4341,13 +4656,19 @@
         <v>0</v>
       </c>
       <c r="W66" s="3">
+        <v>0</v>
+      </c>
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="3">
         <v>177800</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4576,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,8 +4985,14 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4712,8 +5059,14 @@
       <c r="X72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,38 +5281,44 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19600</v>
+        <v>20400</v>
       </c>
       <c r="E76" s="3">
         <v>19100</v>
       </c>
       <c r="F76" s="3">
+        <v>19600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>19100</v>
+      </c>
+      <c r="H76" s="3">
         <v>18600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>17000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>16800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>17100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>16600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4957,11 +5328,11 @@
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>0</v>
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R76" s="3">
         <v>0</v>
@@ -4979,13 +5350,19 @@
         <v>0</v>
       </c>
       <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="3">
         <v>21100</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,113 +5429,125 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>39721</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="3">
         <v>500</v>
-      </c>
-      <c r="E81" s="3">
-        <v>400</v>
-      </c>
-      <c r="F81" s="3">
-        <v>600</v>
       </c>
       <c r="G81" s="3">
         <v>400</v>
       </c>
       <c r="H81" s="3">
+        <v>600</v>
+      </c>
+      <c r="I81" s="3">
         <v>400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>500</v>
       </c>
       <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
+      <c r="K81" s="3">
+        <v>500</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
@@ -5169,11 +5558,11 @@
       <c r="P81" s="3">
         <v>0</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>4</v>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>4</v>
@@ -5187,14 +5576,20 @@
       <c r="V81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-3100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,8 +5614,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5287,8 +5684,14 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,8 +6054,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5695,8 +6128,14 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,8 +6160,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5789,8 +6230,14 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,8 +6378,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5993,8 +6452,14 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6484,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6554,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,8 +6776,14 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6359,8 +6850,14 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,8 +6924,14 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6493,6 +6996,12 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
   <si>
     <t>ALBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,134 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>39721</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F8" s="3">
         <v>1600</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1700</v>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="3">
         <v>1800</v>
@@ -793,22 +801,22 @@
         <v>1700</v>
       </c>
       <c r="J8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1700</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1800</v>
       </c>
       <c r="L8" s="3">
         <v>1700</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
+      <c r="M8" s="3">
+        <v>1800</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
+        <v>1700</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -819,11 +827,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>4</v>
@@ -837,14 +845,20 @@
       <c r="X8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="3">
         <v>2400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -917,8 +931,14 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1011,14 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1045,10 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1121,14 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1201,14 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1241,8 +1281,14 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1297,11 +1343,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>4</v>
@@ -1315,8 +1361,14 @@
       <c r="Z15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,8 +1392,10 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1372,11 +1426,11 @@
       <c r="L17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
+      <c r="M17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
@@ -1390,11 +1444,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>4</v>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>4</v>
@@ -1408,14 +1462,20 @@
       <c r="X17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="3">
         <v>3700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1449,11 +1509,11 @@
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -1464,11 +1524,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>4</v>
@@ -1482,14 +1542,20 @@
       <c r="X18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1582,10 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1551,11 +1619,11 @@
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
-        <v>500</v>
-      </c>
-      <c r="O20" s="3">
-        <v>500</v>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P20" s="3">
         <v>500</v>
@@ -1566,11 +1634,11 @@
       <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
+      <c r="S20" s="3">
+        <v>500</v>
+      </c>
+      <c r="T20" s="3">
+        <v>500</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>4</v>
@@ -1584,14 +1652,20 @@
       <c r="X20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1664,8 +1738,14 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,46 +1818,52 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>800</v>
+      </c>
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>600</v>
       </c>
       <c r="H23" s="3">
         <v>700</v>
       </c>
       <c r="I23" s="3">
+        <v>600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>700</v>
+      </c>
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
-      </c>
-      <c r="L23" s="3">
-        <v>500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>300</v>
       </c>
       <c r="N23" s="3">
         <v>500</v>
       </c>
       <c r="O23" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P23" s="3">
         <v>500</v>
@@ -1789,54 +1875,60 @@
         <v>500</v>
       </c>
       <c r="S23" s="3">
+        <v>500</v>
+      </c>
+      <c r="T23" s="3">
+        <v>500</v>
+      </c>
+      <c r="U23" s="3">
         <v>300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>400</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>600</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>200</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
@@ -1869,25 +1961,31 @@
         <v>100</v>
       </c>
       <c r="U24" s="3">
+        <v>100</v>
+      </c>
+      <c r="V24" s="3">
+        <v>100</v>
+      </c>
+      <c r="W24" s="3">
         <v>2500</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA24" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,46 +2058,52 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>600</v>
+      </c>
+      <c r="F26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3">
         <v>500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>600</v>
       </c>
       <c r="I26" s="3">
         <v>400</v>
       </c>
       <c r="J26" s="3">
+        <v>600</v>
+      </c>
+      <c r="K26" s="3">
         <v>400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>500</v>
       </c>
       <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>4</v>
+      <c r="M26" s="3">
+        <v>500</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -2010,11 +2114,11 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>4</v>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>4</v>
@@ -2028,52 +2132,58 @@
       <c r="X26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>600</v>
+      </c>
+      <c r="F27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3">
         <v>500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>600</v>
       </c>
       <c r="I27" s="3">
         <v>400</v>
       </c>
       <c r="J27" s="3">
+        <v>600</v>
+      </c>
+      <c r="K27" s="3">
         <v>400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>500</v>
       </c>
       <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>4</v>
+      <c r="M27" s="3">
+        <v>500</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -2084,11 +2194,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>4</v>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>4</v>
@@ -2102,14 +2212,20 @@
       <c r="X27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2298,14 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2378,14 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2458,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2538,14 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2439,11 +2579,11 @@
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-500</v>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P32" s="3">
         <v>-500</v>
@@ -2454,11 +2594,11 @@
       <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
+      <c r="S32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T32" s="3">
+        <v>-500</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>4</v>
@@ -2472,52 +2612,58 @@
       <c r="X32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="3">
         <v>3400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>600</v>
+      </c>
+      <c r="F33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3">
         <v>500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>600</v>
       </c>
       <c r="I33" s="3">
         <v>400</v>
       </c>
       <c r="J33" s="3">
+        <v>600</v>
+      </c>
+      <c r="K33" s="3">
         <v>400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>500</v>
       </c>
       <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>4</v>
+      <c r="M33" s="3">
+        <v>500</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
@@ -2528,11 +2674,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>4</v>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>4</v>
@@ -2546,14 +2692,20 @@
       <c r="X33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,46 +2778,52 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>600</v>
+      </c>
+      <c r="F35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3">
         <v>500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>600</v>
       </c>
       <c r="I35" s="3">
         <v>400</v>
       </c>
       <c r="J35" s="3">
+        <v>600</v>
+      </c>
+      <c r="K35" s="3">
         <v>400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>500</v>
       </c>
       <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>4</v>
+      <c r="M35" s="3">
+        <v>500</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
@@ -2676,11 +2834,11 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>4</v>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>4</v>
@@ -2694,93 +2852,105 @@
       <c r="X35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>39721</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2977,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,8 +3007,10 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2904,13 +3078,19 @@
         <v>0</v>
       </c>
       <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
         <v>4100</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2978,13 +3158,19 @@
         <v>0</v>
       </c>
       <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
         <v>900</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3057,8 +3243,14 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,8 +3323,14 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3205,8 +3403,14 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3279,8 +3483,14 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,8 +3563,14 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3422,13 +3638,19 @@
         <v>0</v>
       </c>
       <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
         <v>6400</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3496,13 +3718,19 @@
         <v>0</v>
       </c>
       <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
         <v>2500</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3803,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3883,14 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3723,8 +3963,14 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,8 +4043,14 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3866,13 +4118,19 @@
         <v>0</v>
       </c>
       <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
         <v>198900</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4157,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,8 +4187,10 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4001,8 +4263,14 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4075,8 +4343,14 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4149,8 +4423,14 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4223,8 +4503,14 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4297,8 +4583,14 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4371,8 +4663,14 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4743,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4823,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,8 +4903,14 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4662,13 +4978,19 @@
         <v>0</v>
       </c>
       <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="3">
         <v>177800</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +5017,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +5093,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5173,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5253,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,8 +5333,14 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5065,8 +5413,14 @@
       <c r="Z72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5493,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5573,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,44 +5653,50 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F76" s="3">
         <v>20400</v>
-      </c>
-      <c r="E76" s="3">
-        <v>19100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>19600</v>
       </c>
       <c r="G76" s="3">
         <v>19100</v>
       </c>
       <c r="H76" s="3">
+        <v>19600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>19100</v>
+      </c>
+      <c r="J76" s="3">
         <v>18600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>17000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>16800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>17100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>16600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
@@ -5334,11 +5706,11 @@
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3">
-        <v>0</v>
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T76" s="3">
         <v>0</v>
@@ -5356,13 +5728,19 @@
         <v>0</v>
       </c>
       <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="3">
         <v>21100</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,125 +5813,137 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>39721</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>600</v>
+      </c>
+      <c r="F81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="3">
         <v>500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>600</v>
       </c>
       <c r="I81" s="3">
         <v>400</v>
       </c>
       <c r="J81" s="3">
+        <v>600</v>
+      </c>
+      <c r="K81" s="3">
         <v>400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>500</v>
       </c>
       <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>4</v>
+      <c r="M81" s="3">
+        <v>500</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
@@ -5564,11 +5954,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>4</v>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>4</v>
@@ -5582,14 +5972,20 @@
       <c r="X81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +6012,10 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5690,8 +6088,14 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +6168,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6248,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6328,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6408,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,8 +6488,14 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6134,8 +6568,14 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6602,10 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6236,8 +6678,14 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6758,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6838,14 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6458,8 +6918,14 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6952,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +7028,14 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +7108,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +7188,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,8 +7268,14 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6856,8 +7348,14 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,8 +7428,14 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7002,6 +7506,12 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,147 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>39721</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3">
         <v>2400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1600</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1700</v>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J8" s="3">
         <v>1800</v>
@@ -807,22 +814,22 @@
         <v>1700</v>
       </c>
       <c r="L8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M8" s="3">
         <v>1700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1800</v>
       </c>
       <c r="N8" s="3">
         <v>1700</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
+      <c r="O8" s="3">
+        <v>1800</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+        <v>1700</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -833,11 +840,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>4</v>
@@ -851,14 +858,20 @@
       <c r="Z8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="3">
         <v>2400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -937,8 +950,14 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,8 +1036,14 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1047,8 +1072,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1154,14 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,8 +1240,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1287,8 +1326,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1349,11 +1394,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>4</v>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>4</v>
@@ -1367,8 +1412,14 @@
       <c r="AB15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,31 +1445,33 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>4</v>
@@ -1432,11 +1485,11 @@
       <c r="N17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
+      <c r="O17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
@@ -1450,11 +1503,11 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>4</v>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>4</v>
@@ -1468,37 +1521,43 @@
       <c r="Z17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="3">
         <v>3700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>2700</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
+      <c r="F18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1600</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
+      <c r="J18" s="3">
+        <v>1800</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
@@ -1515,11 +1574,11 @@
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
@@ -1530,11 +1589,11 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>4</v>
@@ -1548,14 +1607,20 @@
       <c r="Z18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,31 +1649,33 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-1300</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
+      <c r="F20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-1100</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+      <c r="J20" s="3">
+        <v>-1100</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
@@ -1625,11 +1692,11 @@
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>500</v>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R20" s="3">
         <v>500</v>
@@ -1640,11 +1707,11 @@
       <c r="T20" s="3">
         <v>500</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
+      <c r="U20" s="3">
+        <v>500</v>
+      </c>
+      <c r="V20" s="3">
+        <v>500</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>4</v>
@@ -1658,14 +1725,20 @@
       <c r="Z20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1744,8 +1817,14 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1824,52 +1903,58 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>600</v>
       </c>
       <c r="J23" s="3">
         <v>700</v>
       </c>
       <c r="K23" s="3">
+        <v>600</v>
+      </c>
+      <c r="L23" s="3">
+        <v>700</v>
+      </c>
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>700</v>
-      </c>
-      <c r="N23" s="3">
-        <v>500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>300</v>
       </c>
       <c r="P23" s="3">
         <v>500</v>
       </c>
       <c r="Q23" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="R23" s="3">
         <v>500</v>
@@ -1881,60 +1966,66 @@
         <v>500</v>
       </c>
       <c r="U23" s="3">
+        <v>500</v>
+      </c>
+      <c r="V23" s="3">
+        <v>500</v>
+      </c>
+      <c r="W23" s="3">
         <v>300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>400</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AA23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-4700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>600</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
+        <v>600</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
@@ -1967,25 +2058,31 @@
         <v>100</v>
       </c>
       <c r="W24" s="3">
+        <v>100</v>
+      </c>
+      <c r="X24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y24" s="3">
         <v>2500</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AA24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC24" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2064,52 +2161,58 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3">
         <v>500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>600</v>
       </c>
       <c r="K26" s="3">
         <v>400</v>
       </c>
       <c r="L26" s="3">
+        <v>600</v>
+      </c>
+      <c r="M26" s="3">
         <v>400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>500</v>
       </c>
       <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>4</v>
+      <c r="O26" s="3">
+        <v>500</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
@@ -2120,11 +2223,11 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>4</v>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
       </c>
       <c r="W26" s="3" t="s">
         <v>4</v>
@@ -2138,58 +2241,64 @@
       <c r="Z26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3">
         <v>500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>600</v>
       </c>
       <c r="K27" s="3">
         <v>400</v>
       </c>
       <c r="L27" s="3">
+        <v>600</v>
+      </c>
+      <c r="M27" s="3">
         <v>400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>500</v>
       </c>
       <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>4</v>
+      <c r="O27" s="3">
+        <v>500</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
@@ -2200,11 +2309,11 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>4</v>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>4</v>
@@ -2218,14 +2327,20 @@
       <c r="Z27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AA27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2304,8 +2419,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2384,8 +2505,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2591,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,31 +2677,37 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>1300</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
+      <c r="F32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1100</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+      <c r="J32" s="3">
+        <v>1100</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
@@ -2585,11 +2724,11 @@
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-500</v>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R32" s="3">
         <v>-500</v>
@@ -2600,11 +2739,11 @@
       <c r="T32" s="3">
         <v>-500</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
+      <c r="U32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V32" s="3">
+        <v>-500</v>
       </c>
       <c r="W32" s="3" t="s">
         <v>4</v>
@@ -2618,58 +2757,64 @@
       <c r="Z32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AA32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC32" s="3">
         <v>3400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3">
         <v>500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>600</v>
       </c>
       <c r="K33" s="3">
         <v>400</v>
       </c>
       <c r="L33" s="3">
+        <v>600</v>
+      </c>
+      <c r="M33" s="3">
         <v>400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>500</v>
       </c>
       <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>4</v>
+      <c r="O33" s="3">
+        <v>500</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
@@ -2680,11 +2825,11 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>4</v>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
       </c>
       <c r="W33" s="3" t="s">
         <v>4</v>
@@ -2698,14 +2843,20 @@
       <c r="Z33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,52 +2935,58 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="3">
         <v>500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>600</v>
       </c>
       <c r="K35" s="3">
         <v>400</v>
       </c>
       <c r="L35" s="3">
+        <v>600</v>
+      </c>
+      <c r="M35" s="3">
         <v>400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>500</v>
       </c>
       <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>4</v>
+      <c r="O35" s="3">
+        <v>500</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
@@ -2840,11 +2997,11 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V35" s="3" t="s">
-        <v>4</v>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
       </c>
       <c r="W35" s="3" t="s">
         <v>4</v>
@@ -2858,99 +3015,111 @@
       <c r="Z35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AA35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>39721</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3148,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,8 +3180,10 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3084,13 +3257,19 @@
         <v>0</v>
       </c>
       <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
         <v>4100</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3164,13 +3343,19 @@
         <v>0</v>
       </c>
       <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
         <v>900</v>
       </c>
-      <c r="AB42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3249,8 +3434,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3329,8 +3520,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3409,8 +3606,14 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3489,8 +3692,14 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3569,8 +3778,14 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3644,13 +3859,19 @@
         <v>0</v>
       </c>
       <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
         <v>6400</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3724,13 +3945,19 @@
         <v>0</v>
       </c>
       <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
         <v>2500</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +4036,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,8 +4122,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3969,8 +4208,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,8 +4294,14 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4124,13 +4375,19 @@
         <v>0</v>
       </c>
       <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3">
         <v>198900</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4416,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,8 +4448,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4269,8 +4530,14 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4349,8 +4616,14 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4429,8 +4702,14 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4509,8 +4788,14 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4589,8 +4874,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4669,8 +4960,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +5046,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4829,8 +5132,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,8 +5218,14 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4984,13 +5299,19 @@
         <v>0</v>
       </c>
       <c r="AA66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="3">
         <v>177800</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5340,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5422,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5508,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5259,8 +5594,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,8 +5680,14 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5419,8 +5766,14 @@
       <c r="AB72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5852,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5938,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,50 +6024,56 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F76" s="3">
         <v>21000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>20500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>20400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>19100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>19600</v>
       </c>
       <c r="I76" s="3">
         <v>19100</v>
       </c>
       <c r="J76" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K76" s="3">
+        <v>19100</v>
+      </c>
+      <c r="L76" s="3">
         <v>18600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>17000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>16800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>17100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>16600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
@@ -5712,11 +6083,11 @@
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
-      <c r="U76" s="3">
-        <v>0</v>
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V76" s="3">
         <v>0</v>
@@ -5734,13 +6105,19 @@
         <v>0</v>
       </c>
       <c r="AA76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="3">
         <v>21100</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,137 +6196,149 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>39721</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" s="3">
         <v>500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>600</v>
       </c>
       <c r="K81" s="3">
         <v>400</v>
       </c>
       <c r="L81" s="3">
+        <v>600</v>
+      </c>
+      <c r="M81" s="3">
         <v>400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>500</v>
       </c>
       <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>4</v>
+      <c r="O81" s="3">
+        <v>500</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
@@ -5960,11 +6349,11 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V81" s="3" t="s">
-        <v>4</v>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
       </c>
       <c r="W81" s="3" t="s">
         <v>4</v>
@@ -5978,14 +6367,20 @@
       <c r="Z81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AA81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,8 +6409,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6094,8 +6491,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6577,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6663,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6749,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6835,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,8 +6921,14 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6574,8 +7007,14 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,8 +7043,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6684,8 +7125,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +7211,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,8 +7297,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6924,8 +7383,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,8 +7419,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7034,8 +7501,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7587,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7673,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,8 +7759,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7354,8 +7845,14 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7434,8 +7931,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7512,6 +8015,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
   <si>
     <t>ALBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,174 +665,178 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>39721</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
         <v>2400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1600</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>1800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1800</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1700</v>
       </c>
       <c r="N8" s="3">
         <v>1700</v>
       </c>
       <c r="O8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P8" s="3">
         <v>1800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1700</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -846,8 +850,8 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
+      <c r="W8" s="3">
+        <v>0</v>
       </c>
       <c r="X8" s="3" t="s">
         <v>4</v>
@@ -864,14 +868,17 @@
       <c r="AB8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AC8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="3">
         <v>2400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -956,8 +963,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1042,8 +1052,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1087,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1160,8 +1174,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,8 +1263,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1332,8 +1352,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1400,8 +1423,8 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>4</v>
+      <c r="Y15" s="3">
+        <v>0</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>4</v>
@@ -1418,8 +1441,11 @@
       <c r="AD15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,8 +1473,9 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1473,8 +1500,8 @@
       <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>4</v>
@@ -1491,8 +1518,8 @@
       <c r="P17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R17" s="3">
         <v>0</v>
@@ -1509,8 +1536,8 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>4</v>
+      <c r="W17" s="3">
+        <v>0</v>
       </c>
       <c r="X17" s="3" t="s">
         <v>4</v>
@@ -1527,41 +1554,44 @@
       <c r="AB17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AC17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD17" s="3">
         <v>3700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
         <v>2700</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="E18" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1600</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>1800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1580,8 +1610,8 @@
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
+      <c r="R18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
@@ -1595,8 +1625,8 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
+      <c r="W18" s="3">
+        <v>0</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>4</v>
@@ -1613,14 +1643,17 @@
       <c r="AB18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AC18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-1300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,34 +1684,35 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>-1300</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1100</v>
       </c>
       <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-1100</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
@@ -1698,8 +1732,8 @@
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
-        <v>500</v>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S20" s="3">
         <v>500</v>
@@ -1713,8 +1747,8 @@
       <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
+      <c r="W20" s="3">
+        <v>500</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>4</v>
@@ -1731,14 +1765,17 @@
       <c r="AB20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AC20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-3400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1823,8 +1860,11 @@
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1909,8 +1949,11 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1921,43 +1964,43 @@
         <v>1400</v>
       </c>
       <c r="F23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G23" s="3">
         <v>1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>500</v>
       </c>
       <c r="S23" s="3">
         <v>500</v>
@@ -1972,63 +2015,66 @@
         <v>500</v>
       </c>
       <c r="W23" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="X23" s="3">
         <v>300</v>
       </c>
       <c r="Y23" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z23" s="3">
         <v>400</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AC23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-4700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
       </c>
       <c r="F24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
       </c>
       <c r="H24" s="3">
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
@@ -2064,25 +2110,28 @@
         <v>100</v>
       </c>
       <c r="Y24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z24" s="3">
         <v>2500</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AC24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD24" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,55 +2216,58 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
         <v>1100</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="E26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>400</v>
       </c>
       <c r="N26" s="3">
         <v>400</v>
       </c>
       <c r="O26" s="3">
+        <v>400</v>
+      </c>
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
+      <c r="R26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
@@ -2229,8 +2281,8 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>4</v>
+      <c r="W26" s="3">
+        <v>0</v>
       </c>
       <c r="X26" s="3" t="s">
         <v>4</v>
@@ -2247,61 +2299,64 @@
       <c r="AB26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AC26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-3100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
         <v>1100</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="E27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
-      </c>
-      <c r="M27" s="3">
-        <v>400</v>
       </c>
       <c r="N27" s="3">
         <v>400</v>
       </c>
       <c r="O27" s="3">
+        <v>400</v>
+      </c>
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
+      <c r="R27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
@@ -2315,8 +2370,8 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>4</v>
+      <c r="W27" s="3">
+        <v>0</v>
       </c>
       <c r="X27" s="3" t="s">
         <v>4</v>
@@ -2333,14 +2388,17 @@
       <c r="AB27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AC27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-3100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,34 +2750,37 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
         <v>1300</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
         <v>1400</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1100</v>
       </c>
       <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1100</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
@@ -2730,8 +2800,8 @@
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
-        <v>-500</v>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S32" s="3">
         <v>-500</v>
@@ -2745,8 +2815,8 @@
       <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
+      <c r="W32" s="3">
+        <v>-500</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>4</v>
@@ -2763,61 +2833,64 @@
       <c r="AB32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AC32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD32" s="3">
         <v>3400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
         <v>1100</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="E33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
-      </c>
-      <c r="M33" s="3">
-        <v>400</v>
       </c>
       <c r="N33" s="3">
         <v>400</v>
       </c>
       <c r="O33" s="3">
+        <v>400</v>
+      </c>
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0</v>
+      <c r="R33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
@@ -2831,8 +2904,8 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>4</v>
+      <c r="W33" s="3">
+        <v>0</v>
       </c>
       <c r="X33" s="3" t="s">
         <v>4</v>
@@ -2849,14 +2922,17 @@
       <c r="AB33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AC33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-3100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,55 +3017,58 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
         <v>1100</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="E35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
-      </c>
-      <c r="M35" s="3">
-        <v>400</v>
       </c>
       <c r="N35" s="3">
         <v>400</v>
       </c>
       <c r="O35" s="3">
+        <v>400</v>
+      </c>
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R35" s="3">
-        <v>0</v>
+      <c r="R35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
@@ -3003,8 +3082,8 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>4</v>
+      <c r="W35" s="3">
+        <v>0</v>
       </c>
       <c r="X35" s="3" t="s">
         <v>4</v>
@@ -3021,105 +3100,111 @@
       <c r="AB35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AC35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-3100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>39721</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,8 +3268,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3263,13 +3350,16 @@
         <v>0</v>
       </c>
       <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
         <v>4100</v>
       </c>
-      <c r="AD41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3349,13 +3439,16 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
         <v>900</v>
       </c>
-      <c r="AD42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3440,8 +3533,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3526,8 +3622,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3612,8 +3711,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3698,8 +3800,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3784,8 +3889,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3865,13 +3973,16 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
         <v>6400</v>
       </c>
-      <c r="AD48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3951,13 +4062,16 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
         <v>2500</v>
       </c>
-      <c r="AD49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,8 +4245,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4214,8 +4334,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,8 +4423,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4381,13 +4507,16 @@
         <v>0</v>
       </c>
       <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="3">
         <v>198900</v>
       </c>
-      <c r="AD54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,8 +4580,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4536,8 +4667,11 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4622,8 +4756,11 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4708,8 +4845,11 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4794,8 +4934,11 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4880,8 +5023,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4966,8 +5112,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,8 +5379,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5305,13 +5463,16 @@
         <v>0</v>
       </c>
       <c r="AC66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="3">
         <v>177800</v>
       </c>
-      <c r="AD66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,8 +5857,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5772,8 +5946,11 @@
       <c r="AD72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,53 +6213,56 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E76" s="3">
         <v>22800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16600</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
@@ -6089,8 +6275,8 @@
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
+      <c r="V76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W76" s="3">
         <v>0</v>
@@ -6111,13 +6297,16 @@
         <v>0</v>
       </c>
       <c r="AC76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="3">
         <v>21100</v>
       </c>
-      <c r="AD76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,146 +6391,152 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>39721</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
         <v>1100</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="E81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
-      </c>
-      <c r="M81" s="3">
-        <v>400</v>
       </c>
       <c r="N81" s="3">
         <v>400</v>
       </c>
       <c r="O81" s="3">
+        <v>400</v>
+      </c>
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R81" s="3">
-        <v>0</v>
+      <c r="R81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
@@ -6355,8 +6550,8 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>4</v>
+      <c r="W81" s="3">
+        <v>0</v>
       </c>
       <c r="X81" s="3" t="s">
         <v>4</v>
@@ -6373,14 +6568,17 @@
       <c r="AB81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AC81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-3100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6609,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6497,8 +6696,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,8 +7141,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7013,8 +7230,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,8 +7265,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7131,8 +7352,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,8 +7530,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7389,8 +7619,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7654,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7741,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,8 +8008,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7851,8 +8097,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,8 +8186,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8021,6 +8273,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALBY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
   <si>
     <t>ALBY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,185 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>39721</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E8" s="3">
         <v>2700</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
         <v>2400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1600</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>1800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1800</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1700</v>
       </c>
       <c r="O8" s="3">
         <v>1700</v>
       </c>
       <c r="P8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1700</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -853,8 +857,8 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
+      <c r="X8" s="3">
+        <v>0</v>
       </c>
       <c r="Y8" s="3" t="s">
         <v>4</v>
@@ -871,14 +875,17 @@
       <c r="AC8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="3">
         <v>2400</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -966,8 +973,11 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1055,8 +1065,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1088,8 +1101,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1177,8 +1191,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1266,8 +1283,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1355,8 +1375,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1426,8 +1449,8 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>4</v>
+      <c r="Z15" s="3">
+        <v>0</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>4</v>
@@ -1444,8 +1467,11 @@
       <c r="AE15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1474,8 +1500,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1503,8 +1530,8 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>4</v>
@@ -1521,8 +1548,8 @@
       <c r="Q17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
+      <c r="R17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
@@ -1539,8 +1566,8 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>4</v>
+      <c r="X17" s="3">
+        <v>0</v>
       </c>
       <c r="Y17" s="3" t="s">
         <v>4</v>
@@ -1557,44 +1584,47 @@
       <c r="AC17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AD17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE17" s="3">
         <v>3700</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E18" s="3">
         <v>2700</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1600</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>1800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1613,8 +1643,8 @@
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
+      <c r="S18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
@@ -1628,8 +1658,8 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
+      <c r="X18" s="3">
+        <v>0</v>
       </c>
       <c r="Y18" s="3" t="s">
         <v>4</v>
@@ -1646,14 +1676,17 @@
       <c r="AC18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AD18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-1300</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1685,8 +1718,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1696,26 +1730,26 @@
       <c r="E20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-1100</v>
       </c>
       <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="J20" s="3">
         <v>-1100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-1100</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
@@ -1735,8 +1769,8 @@
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S20" s="3">
-        <v>500</v>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T20" s="3">
         <v>500</v>
@@ -1750,8 +1784,8 @@
       <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
+      <c r="X20" s="3">
+        <v>500</v>
       </c>
       <c r="Y20" s="3" t="s">
         <v>4</v>
@@ -1768,14 +1802,17 @@
       <c r="AC20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AD20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-3400</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-1700</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1863,8 +1900,11 @@
       <c r="AE21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1952,13 +1992,16 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E23" s="3">
         <v>1400</v>
@@ -1967,43 +2010,43 @@
         <v>1400</v>
       </c>
       <c r="G23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>300</v>
-      </c>
-      <c r="S23" s="3">
-        <v>500</v>
       </c>
       <c r="T23" s="3">
         <v>500</v>
@@ -2018,66 +2061,69 @@
         <v>500</v>
       </c>
       <c r="X23" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Y23" s="3">
         <v>300</v>
       </c>
       <c r="Z23" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA23" s="3">
         <v>400</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AD23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE23" s="3">
         <v>-4700</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
-      </c>
-      <c r="E24" s="3">
-        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
       </c>
       <c r="G24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
       </c>
       <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
@@ -2113,25 +2159,28 @@
         <v>100</v>
       </c>
       <c r="Z24" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA24" s="3">
         <v>2500</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AD24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE24" s="3">
         <v>-1600</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2219,58 +2268,61 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="F26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
-      </c>
-      <c r="N26" s="3">
-        <v>400</v>
       </c>
       <c r="O26" s="3">
         <v>400</v>
       </c>
       <c r="P26" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S26" s="3">
-        <v>0</v>
+      <c r="S26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
@@ -2284,8 +2336,8 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>4</v>
+      <c r="X26" s="3">
+        <v>0</v>
       </c>
       <c r="Y26" s="3" t="s">
         <v>4</v>
@@ -2302,64 +2354,67 @@
       <c r="AC26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AD26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE26" s="3">
         <v>-3100</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E27" s="3">
         <v>1100</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
-      </c>
-      <c r="N27" s="3">
-        <v>400</v>
       </c>
       <c r="O27" s="3">
         <v>400</v>
       </c>
       <c r="P27" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0</v>
+      <c r="S27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
@@ -2373,8 +2428,8 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>4</v>
+      <c r="X27" s="3">
+        <v>0</v>
       </c>
       <c r="Y27" s="3" t="s">
         <v>4</v>
@@ -2391,14 +2446,17 @@
       <c r="AC27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AD27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-3100</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2486,8 +2544,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2575,8 +2636,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2664,8 +2728,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2753,8 +2820,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2764,26 +2834,26 @@
       <c r="E32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="F32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
         <v>1400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1100</v>
       </c>
       <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="J32" s="3">
         <v>1100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1100</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
@@ -2803,8 +2873,8 @@
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S32" s="3">
-        <v>-500</v>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T32" s="3">
         <v>-500</v>
@@ -2818,8 +2888,8 @@
       <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
+      <c r="X32" s="3">
+        <v>-500</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>4</v>
@@ -2836,64 +2906,67 @@
       <c r="AC32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AD32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE32" s="3">
         <v>3400</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E33" s="3">
         <v>1100</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="F33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
-      </c>
-      <c r="N33" s="3">
-        <v>400</v>
       </c>
       <c r="O33" s="3">
         <v>400</v>
       </c>
       <c r="P33" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0</v>
+      <c r="S33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T33" s="3">
         <v>0</v>
@@ -2907,8 +2980,8 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>4</v>
+      <c r="X33" s="3">
+        <v>0</v>
       </c>
       <c r="Y33" s="3" t="s">
         <v>4</v>
@@ -2925,14 +2998,17 @@
       <c r="AC33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AD33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-3100</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3020,58 +3096,61 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E35" s="3">
         <v>1100</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="F35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
-      </c>
-      <c r="N35" s="3">
-        <v>400</v>
       </c>
       <c r="O35" s="3">
         <v>400</v>
       </c>
       <c r="P35" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S35" s="3">
-        <v>0</v>
+      <c r="S35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T35" s="3">
         <v>0</v>
@@ -3085,8 +3164,8 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>4</v>
+      <c r="X35" s="3">
+        <v>0</v>
       </c>
       <c r="Y35" s="3" t="s">
         <v>4</v>
@@ -3103,108 +3182,114 @@
       <c r="AC35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AD35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-3100</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>39721</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3236,8 +3321,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3269,8 +3355,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3353,13 +3440,16 @@
         <v>0</v>
       </c>
       <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
         <v>4100</v>
       </c>
-      <c r="AE41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3442,13 +3532,16 @@
         <v>0</v>
       </c>
       <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
         <v>900</v>
       </c>
-      <c r="AE42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3536,8 +3629,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3625,8 +3721,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3714,8 +3813,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3803,8 +3905,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3892,8 +3997,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3976,13 +4084,16 @@
         <v>0</v>
       </c>
       <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3">
         <v>6400</v>
       </c>
-      <c r="AE48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4065,13 +4176,16 @@
         <v>0</v>
       </c>
       <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
         <v>2500</v>
       </c>
-      <c r="AE49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4159,8 +4273,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4248,8 +4365,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4337,8 +4457,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4426,8 +4549,11 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4510,13 +4636,16 @@
         <v>0</v>
       </c>
       <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="3">
         <v>198900</v>
       </c>
-      <c r="AE54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4548,8 +4677,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4581,8 +4711,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4670,8 +4801,11 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4759,8 +4893,11 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4848,8 +4985,11 @@
       <c r="AE59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4937,8 +5077,11 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5026,8 +5169,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5115,8 +5261,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5204,8 +5353,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5293,8 +5445,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5382,8 +5537,11 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5466,13 +5624,16 @@
         <v>0</v>
       </c>
       <c r="AD66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="3">
         <v>177800</v>
       </c>
-      <c r="AE66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5504,8 +5665,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5593,8 +5755,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5682,8 +5847,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5771,8 +5939,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5860,8 +6031,11 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5949,8 +6123,11 @@
       <c r="AE72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6038,8 +6215,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6127,8 +6307,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6216,56 +6399,59 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E76" s="3">
         <v>23600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>19100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>19600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>19100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16600</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
@@ -6278,8 +6464,8 @@
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W76" s="3">
-        <v>0</v>
+      <c r="W76" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X76" s="3">
         <v>0</v>
@@ -6300,13 +6486,16 @@
         <v>0</v>
       </c>
       <c r="AD76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="3">
         <v>21100</v>
       </c>
-      <c r="AE76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6394,152 +6583,158 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>39721</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>39629</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E81" s="3">
         <v>1100</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="F81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
-      </c>
-      <c r="N81" s="3">
-        <v>400</v>
       </c>
       <c r="O81" s="3">
         <v>400</v>
       </c>
       <c r="P81" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S81" s="3">
-        <v>0</v>
+      <c r="S81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T81" s="3">
         <v>0</v>
@@ -6553,8 +6748,8 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>4</v>
+      <c r="X81" s="3">
+        <v>0</v>
       </c>
       <c r="Y81" s="3" t="s">
         <v>4</v>
@@ -6571,14 +6766,17 @@
       <c r="AC81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AD81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-3100</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6610,8 +6808,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6699,8 +6898,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6788,8 +6990,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6877,8 +7082,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6966,8 +7174,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7055,8 +7266,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7144,8 +7358,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7233,8 +7450,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7266,8 +7486,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7355,8 +7576,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7444,8 +7668,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7533,8 +7760,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7622,8 +7852,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7655,8 +7888,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7744,8 +7978,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7833,8 +8070,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7922,8 +8162,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8011,8 +8254,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8100,8 +8346,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8189,8 +8438,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8276,6 +8528,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
